--- a/BLUE PROTOCOL(ゲーム名が決まっていない)_コスト表.xlsx
+++ b/BLUE PROTOCOL(ゲーム名が決まっていない)_コスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\立石 喜遼\Documents\GitHub\Game2025\9月までの作品制作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\立石 喜遼\Documents\GitHub\Game2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5C9CE4-CDA0-4FE4-A5B8-D0D8F04B470F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFFF2B5-C7C4-4A9F-A4F3-54CAC318E3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="1155" windowWidth="18255" windowHeight="14250" xr2:uid="{A3C85D7E-55A7-4ED3-8EC8-9A17E23A1654}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A3C85D7E-55A7-4ED3-8EC8-9A17E23A1654}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="3" r:id="rId1"/>
@@ -927,7 +927,211 @@
     <cellStyle name="アクセント 6" xfId="9" builtinId="49"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9751CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0BA8EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEBF86E"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9751CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9751CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0BA8EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEBF86E"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9751CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9751CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0BA8EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEBF86E"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9751CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1333,8 +1537,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.36143244416694748"/>
-                  <c:y val="0.42173560421735601"/>
+                  <c:x val="-0.3768594387350489"/>
+                  <c:y val="0.32441200324412001"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2530,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4224,7 +4428,7 @@
         <v>23</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F78" s="4">
         <v>0</v>
@@ -4315,49 +4519,49 @@
   <autoFilter ref="B2:H81" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B3:H81">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$H3="作業停止中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>$H3="機能削除"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>$H3="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>$H3="バグ発生中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>$H3="完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>$H3="作業停止中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>$H3="中平"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D81">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="29" priority="10">
       <formula>$D3="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="28" priority="11">
       <formula>$D3="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="27" priority="12">
       <formula>$D3="B"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="26" priority="13">
       <formula>$D3="C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:H76 H78:H81 H3:H50">
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>$C2=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51 H77">
-    <cfRule type="expression" dxfId="0" priority="28">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>#REF!=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4383,8 +4587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FB1CEF-8502-4511-8513-ADAD0CAF1FF3}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/BLUE PROTOCOL(ゲーム名が決まっていない)_コスト表.xlsx
+++ b/BLUE PROTOCOL(ゲーム名が決まっていない)_コスト表.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\立石 喜遼\Documents\GitHub\Game2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFFF2B5-C7C4-4A9F-A4F3-54CAC318E3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537783A9-8007-4CE9-A27D-6532FA6A0BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A3C85D7E-55A7-4ED3-8EC8-9A17E23A1654}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{A3C85D7E-55A7-4ED3-8EC8-9A17E23A1654}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="3" r:id="rId1"/>
     <sheet name="作業状況" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$B$2:$H$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$B$2:$I$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="92">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -91,19 +91,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>プレイヤー</t>
-  </si>
-  <si>
-    <t>敵1</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>敵1</t>
-  </si>
-  <si>
-    <t>敵2</t>
-  </si>
-  <si>
     <t>アニメーション処理</t>
     <rPh sb="7" eb="9">
       <t>ショリ</t>
@@ -333,6 +320,113 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>カプセルの当たり判定</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>球の当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロト</t>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スキル1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スキル2</t>
+  </si>
+  <si>
+    <t>スキル3</t>
+  </si>
+  <si>
+    <t>スキル4</t>
+  </si>
+  <si>
+    <t>スキル5</t>
+  </si>
+  <si>
+    <t>スキル6</t>
+  </si>
+  <si>
+    <t>バック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダッシュ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>作業中</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>プレイヤーの3Dモデル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵の3Dモデル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの3Dアニメーション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵の3Dアニメーション</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>移動</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
@@ -340,113 +434,55 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カプセルの当たり判定</t>
+    <t>カメラの視野角</t>
+    <rPh sb="4" eb="7">
+      <t>シヤカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カメラの追従</t>
+    <rPh sb="4" eb="6">
+      <t>ツイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カメラの移動</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カメラの当たり判定</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正(バグ取り)</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
     <rPh sb="5" eb="6">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンテイ</t>
+      <t>トリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>球の当たり判定</t>
-    <rPh sb="0" eb="1">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンテイ</t>
-    </rPh>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HP</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プロト</t>
-  </si>
-  <si>
-    <t>攻撃</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>スキル1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>スキル2</t>
-  </si>
-  <si>
-    <t>スキル3</t>
-  </si>
-  <si>
-    <t>スキル4</t>
-  </si>
-  <si>
-    <t>スキル5</t>
-  </si>
-  <si>
-    <t>スキル6</t>
-  </si>
-  <si>
-    <t>バック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ダッシュ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵3</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>作業中</t>
-  </si>
-  <si>
-    <t>α</t>
-  </si>
-  <si>
-    <t>プレイヤーの3Dモデル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵の3Dモデル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プレイヤーの3Dアニメーション</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵の3Dアニメーション</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BGM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>その他</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
+    <t>ロックオン</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -457,71 +493,87 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>移動</t>
+    <t>被弾</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カメラの視野角</t>
-    <rPh sb="4" eb="7">
-      <t>シヤカク</t>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カメラの追従</t>
-    <rPh sb="4" eb="6">
-      <t>ツイジュウ</t>
+    <t>索敵</t>
+    <rPh sb="0" eb="2">
+      <t>サクテキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カメラの移動</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カメラの当たり判定</t>
-    <rPh sb="4" eb="5">
+    <t>プレイヤー共通</t>
+    <rPh sb="5" eb="7">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>沸き</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>当たり判定</t>
+    <rPh sb="0" eb="1">
       <t>ア</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="3" eb="5">
       <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>殴り攻撃</t>
+    <t>敵共通</t>
     <rPh sb="0" eb="1">
-      <t>ナグ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>遠距離攻撃</t>
-    <rPh sb="0" eb="3">
-      <t>エンキョリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>突進攻撃</t>
-    <rPh sb="0" eb="2">
-      <t>トッシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>修正(バグ取り)</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トリ</t>
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キョウツウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -927,82 +979,7 @@
     <cellStyle name="アクセント 6" xfId="9" builtinId="49"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9751CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0BA8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFEBF86E"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9751CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -1149,6 +1126,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF4FD1FF"/>
         </patternFill>
       </fill>
@@ -1177,67 +1161,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9751CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0BA8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFEBF86E"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9751CB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1670,7 +1593,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>46.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13</c:v>
@@ -2732,22 +2655,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2757,1825 +2681,2029 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="4">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4">
         <v>4</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="4">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4">
         <v>4</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>84</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="4">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="4">
         <v>2.5</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>84</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="4">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="4">
         <v>2.5</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>86</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="4">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="4">
         <v>2.5</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>86</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="4">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4">
         <v>2.5</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>63</v>
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="4">
+        <v>57</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>63</v>
+        <v>87</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="4">
+        <v>57</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>63</v>
+        <v>88</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="4">
+        <v>57</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="4">
+        <v>57</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="4">
         <v>1.5</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>90</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="4">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>90</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="4">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="4">
         <v>2</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="7" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="4">
+        <v>21</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="4">
         <v>0.5</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="7" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="4">
+        <v>21</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="4">
         <v>0.5</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="7" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="7" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="7" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="7" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="7" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>63</v>
+        <v>82</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="7" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>63</v>
+        <v>82</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="7" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="7" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4" t="s">
-        <v>23</v>
+        <v>84</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
-        <v>23</v>
+        <v>84</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4" t="s">
-        <v>23</v>
+        <v>84</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="7" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="7" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="7" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="7" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="7" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="51" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="51" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4" t="s">
-        <v>25</v>
+        <v>83</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4" t="s">
-        <v>25</v>
+        <v>83</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4" t="s">
-        <v>25</v>
+        <v>83</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4" t="s">
-        <v>25</v>
+        <v>83</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="51" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D42" s="3"/>
       <c r="E42" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
       <c r="B43" s="51" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="51" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D44" s="3"/>
       <c r="E44" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
       <c r="B47" s="51" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D47" s="3"/>
       <c r="E47" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="51" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
       <c r="B49" s="51" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D49" s="3"/>
       <c r="E49" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="51" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D50" s="3"/>
       <c r="E50" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D51" s="3"/>
       <c r="E51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="4">
-        <v>0</v>
-      </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
       <c r="B53" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="4">
+        <v>21</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" s="4">
         <v>1.5</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H53" s="4"/>
+      <c r="I53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="2"/>
       <c r="B54" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="4">
+        <v>21</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="4">
         <v>2</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
       <c r="B55" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="4">
+        <v>21</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="4">
         <v>1.5</v>
       </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="2"/>
       <c r="B56" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F56" s="4">
+        <v>21</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" s="4">
         <v>1.5</v>
       </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="2"/>
-      <c r="B57" s="1" t="s">
-        <v>11</v>
+      <c r="B57" s="52" t="s">
+        <v>6</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="4" t="s">
-        <v>23</v>
+      <c r="D57" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D58" s="3"/>
       <c r="E58" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="4">
-        <v>0</v>
-      </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D61" s="3"/>
       <c r="E61" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D62" s="3"/>
       <c r="E62" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D63" s="3"/>
       <c r="E63" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D64" s="3"/>
       <c r="E64" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="4">
-        <v>0</v>
-      </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="2"/>
       <c r="B66" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D66" s="3"/>
       <c r="E66" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D67" s="3"/>
       <c r="E67" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" s="4">
-        <v>0</v>
-      </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D68" s="3"/>
       <c r="E68" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0</v>
-      </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D70" s="3"/>
       <c r="E70" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" s="4">
-        <v>0</v>
-      </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D71" s="3"/>
       <c r="E71" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F71" s="4">
-        <v>0</v>
-      </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D72" s="3"/>
       <c r="E72" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F72" s="4">
-        <v>0</v>
-      </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D73" s="3"/>
       <c r="E73" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0</v>
-      </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D74" s="3"/>
       <c r="E74" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" s="4">
-        <v>0</v>
-      </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D75" s="3"/>
       <c r="E75" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="4">
-        <v>0</v>
-      </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C76" s="3"/>
-      <c r="D76" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D76" s="3"/>
       <c r="E76" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F76" s="4">
-        <v>0</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D77" s="3"/>
       <c r="E77" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="4">
-        <v>0</v>
-      </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="2"/>
       <c r="B78" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D78" s="3"/>
       <c r="E78" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F78" s="4">
-        <v>0</v>
-      </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="4">
+        <v>0</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D79" s="3"/>
       <c r="E79" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F79" s="4">
-        <v>0</v>
-      </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G79" s="4">
+        <v>0</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C80" s="3"/>
-      <c r="D80" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D80" s="3"/>
       <c r="E80" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F80" s="4">
-        <v>0</v>
-      </c>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="4">
+        <v>0</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" s="4">
+        <v>19</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0</v>
+      </c>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A82" s="2"/>
+      <c r="B82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="4">
         <v>2</v>
       </c>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H81" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}"/>
+  <autoFilter ref="B2:I82" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}"/>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B3:H81">
-    <cfRule type="expression" dxfId="23" priority="1">
-      <formula>$H3="作業停止中"</formula>
+  <conditionalFormatting sqref="B51:I82 E39:I42 C43:I50 B34:B50 B3:I33 C34:I38">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$I3="作業停止中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
-      <formula>$H3="機能削除"</formula>
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$I3="機能削除"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
-      <formula>$H3="作業中"</formula>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$I3="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4">
-      <formula>$H3="バグ発生中"</formula>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$I3="バグ発生中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5">
-      <formula>$H3="完了"</formula>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>$I3="完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="8">
-      <formula>$H3="作業停止中"</formula>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>$I3="作業停止中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="9">
-      <formula>$H3="中平"</formula>
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>$I3="中平"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D81">
-    <cfRule type="expression" dxfId="29" priority="10">
-      <formula>$D3="S"</formula>
+  <conditionalFormatting sqref="E3:E82">
+    <cfRule type="expression" dxfId="21" priority="10">
+      <formula>$E3="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="11">
-      <formula>$D3="A"</formula>
+    <cfRule type="expression" dxfId="20" priority="11">
+      <formula>$E3="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="12">
-      <formula>$D3="B"</formula>
+    <cfRule type="expression" dxfId="19" priority="12">
+      <formula>$E3="B"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="13">
-      <formula>$D3="C"</formula>
+    <cfRule type="expression" dxfId="18" priority="13">
+      <formula>$E3="C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52:H76 H78:H81 H3:H50">
-    <cfRule type="expression" dxfId="16" priority="14">
-      <formula>$C2=" 完了"</formula>
+  <conditionalFormatting sqref="I79:I82 I52:I56 I58:I77 I44:I50 I3:I39">
+    <cfRule type="expression" dxfId="17" priority="14">
+      <formula>$D2=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51 H77">
-    <cfRule type="expression" dxfId="24" priority="28">
+  <conditionalFormatting sqref="I51 I78">
+    <cfRule type="expression" dxfId="16" priority="28">
+      <formula>#REF!=" 完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57 I41:I43">
+    <cfRule type="expression" dxfId="15" priority="30">
+      <formula>$D39=" 完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:D41 D42">
+    <cfRule type="expression" dxfId="14" priority="38">
+      <formula>$I40="作業停止中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="39">
+      <formula>$I40="機能削除"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="40">
+      <formula>$I40="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="41">
+      <formula>$I40="バグ発生中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="42">
+      <formula>$I40="完了"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="43">
+      <formula>$I40="作業停止中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="44">
+      <formula>$I40="中平"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="expression" dxfId="7" priority="61">
       <formula>#REF!=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F81" xr:uid="{C9539A71-E4D4-40F2-A11D-7AFF2C80B02D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G82" xr:uid="{C9539A71-E4D4-40F2-A11D-7AFF2C80B02D}">
       <formula1>"0,0.25,0.5,0.75,1,1.25,1.5,1.75,2,2.25,2.5,2.75,3,3.25,3.5,3.75,4,4.25,4.5,4.75,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H81" xr:uid="{10FA913D-EE08-4753-B15B-6660EE5D6060}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I82" xr:uid="{10FA913D-EE08-4753-B15B-6660EE5D6060}">
       <formula1>"未着手,作業中,作業停止中,バグ発生中,機能削除,完了"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D81" xr:uid="{15873D23-46B3-40A2-AEB6-F78E83DA3218}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E82" xr:uid="{15873D23-46B3-40A2-AEB6-F78E83DA3218}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E81" xr:uid="{DECCE2DD-44D0-4408-AA9F-503AF0DB6DB4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F82" xr:uid="{DECCE2DD-44D0-4408-AA9F-503AF0DB6DB4}">
       <formula1>"プロト,α,β,マスター"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4587,7 +4715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FB1CEF-8502-4511-8513-ADAD0CAF1FF3}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -4623,11 +4751,11 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8">
-        <f>SUM(コスト表!F3:F81)</f>
-        <v>45</v>
+        <f>SUM(コスト表!G3:G82)</f>
+        <v>46.5</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="2"/>
@@ -4645,47 +4773,47 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="8">
-        <f>SUMIF(コスト表!H3:H81,"完了",コスト表!F3:F81)</f>
+        <f>SUMIF(コスト表!I3:I82,"完了",コスト表!G3:G82)</f>
         <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="N3" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="30">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D4" s="31">
         <f ca="1" xml:space="preserve"> C3/ C4</f>
@@ -4695,30 +4823,30 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I4" s="8">
-        <f>SUM(コスト表!F3:F81)</f>
-        <v>45</v>
+        <f>SUM(コスト表!G3:G82)</f>
+        <v>46.5</v>
       </c>
       <c r="J4" s="8">
-        <f>SUMIF(コスト表!H3:H81,"作業中",コスト表!F3:F81)</f>
+        <f>SUMIF(コスト表!I3:I82,"作業中",コスト表!G3:G82)</f>
         <v>13</v>
       </c>
       <c r="K4" s="8">
-        <f>SUMIF(コスト表!H3:H81,"作業停止中",コスト表!F3:F81)</f>
+        <f>SUMIF(コスト表!I3:I82,"作業停止中",コスト表!G3:G82)</f>
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <f>SUMIF(コスト表!H3:H81,"バグ発生中",コスト表!F3:F81)</f>
+        <f>SUMIF(コスト表!I3:I82,"バグ発生中",コスト表!G3:G82)</f>
         <v>0</v>
       </c>
       <c r="M4" s="8">
-        <f>SUMIF(コスト表!H3:H81,"機能削除",コスト表!F3:F81)</f>
+        <f>SUMIF(コスト表!I3:I82,"機能削除",コスト表!G3:G82)</f>
         <v>0</v>
       </c>
       <c r="N4" s="8">
-        <f>SUMIF(コスト表!H3:H81,"完了",コスト表!F3:F81)</f>
+        <f>SUMIF(コスト表!I3:I82,"完了",コスト表!G3:G82)</f>
         <v>0</v>
       </c>
       <c r="O4" s="2"/>
@@ -4726,7 +4854,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" s="29">
         <f>DATE(2024,6,9)</f>
@@ -4737,30 +4865,30 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I5" s="27">
-        <f>SUMIF(コスト表!E3:E81,"プロト",コスト表!F3:F81)</f>
-        <v>35.5</v>
+        <f>SUMIF(コスト表!F3:F82,"プロト",コスト表!G3:G82)</f>
+        <v>31</v>
       </c>
       <c r="J5" s="19">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"プロト",コスト表!H3:H81,"作業中")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"プロト",コスト表!I3:I82,"作業中")</f>
         <v>13</v>
       </c>
       <c r="K5" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"プロト",コスト表!H3:H81,"作業停止中")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"プロト",コスト表!I3:I82,"作業停止中")</f>
         <v>0</v>
       </c>
       <c r="L5" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"プロト",コスト表!H3:H81,"バグ発生中")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"プロト",コスト表!I3:I82,"バグ発生中")</f>
         <v>0</v>
       </c>
       <c r="M5" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"プロト",コスト表!H3:H81,"機能削除")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"プロト",コスト表!I3:I82,"機能削除")</f>
         <v>0</v>
       </c>
       <c r="N5" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"プロト",コスト表!H3:H81,"完了")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"プロト",コスト表!I3:I82,"完了")</f>
         <v>0</v>
       </c>
       <c r="O5" s="2"/>
@@ -4768,41 +4896,41 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I6" s="8">
-        <f>SUMIF(コスト表!E3:E81,"α",コスト表!F3:F81)</f>
+        <f>SUMIF(コスト表!F3:F82,"α",コスト表!G3:G82)</f>
         <v>7.5</v>
       </c>
       <c r="J6" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"α",コスト表!H3:H81,"作業中")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"α",コスト表!I3:I82,"作業中")</f>
         <v>0</v>
       </c>
       <c r="K6" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"α",コスト表!H3:H81,"作業停止中")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"α",コスト表!I3:I82,"作業停止中")</f>
         <v>0</v>
       </c>
       <c r="L6" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"α",コスト表!H3:H81,"バグ発生中")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"α",コスト表!I3:I82,"バグ発生中")</f>
         <v>0</v>
       </c>
       <c r="M6" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"α",コスト表!H3:H81,"機能削除")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"α",コスト表!I3:I82,"機能削除")</f>
         <v>0</v>
       </c>
       <c r="N6" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"α",コスト表!H3:H81,"完了")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"α",コスト表!I3:I82,"完了")</f>
         <v>0</v>
       </c>
       <c r="O6" s="2"/>
@@ -4816,30 +4944,30 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I7" s="8">
-        <f>SUMIF(コスト表!E3:E81,"β",コスト表!F3:F81)</f>
+        <f>SUMIF(コスト表!F3:F82,"β",コスト表!G3:G82)</f>
         <v>0</v>
       </c>
       <c r="J7" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"β",コスト表!H3:H81,"作業中")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"β",コスト表!I3:I82,"作業中")</f>
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"β",コスト表!H3:H81,"作業停止中")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"β",コスト表!I3:I82,"作業停止中")</f>
         <v>0</v>
       </c>
       <c r="L7" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"β",コスト表!H3:H81,"バグ発生中")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"β",コスト表!I3:I82,"バグ発生中")</f>
         <v>0</v>
       </c>
       <c r="M7" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"β",コスト表!H3:H81,"機能削除")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"β",コスト表!I3:I82,"機能削除")</f>
         <v>0</v>
       </c>
       <c r="N7" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"β",コスト表!H3:H81,"完了")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"β",コスト表!I3:I82,"完了")</f>
         <v>0</v>
       </c>
       <c r="O7" s="2"/>
@@ -4849,38 +4977,38 @@
       <c r="B8" s="28"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I8" s="8">
-        <f>SUMIF(コスト表!E3:E81,"マスター",コスト表!F3:F81)</f>
-        <v>2</v>
+        <f>SUMIF(コスト表!F3:F82,"マスター",コスト表!G3:G82)</f>
+        <v>8</v>
       </c>
       <c r="J8" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"マスター",コスト表!H3:H81,"作業中")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"マスター",コスト表!I3:I82,"作業中")</f>
         <v>0</v>
       </c>
       <c r="K8" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"マスター",コスト表!H3:H81,"作業停止中")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"マスター",コスト表!I3:I82,"作業停止中")</f>
         <v>0</v>
       </c>
       <c r="L8" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"マスター",コスト表!H3:H81,"バグ発生中")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"マスター",コスト表!I3:I82,"バグ発生中")</f>
         <v>0</v>
       </c>
       <c r="M8" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"マスター",コスト表!H3:H81,"機能削除")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"マスター",コスト表!I3:I82,"機能削除")</f>
         <v>0</v>
       </c>
       <c r="N8" s="8">
-        <f>SUMIFS(コスト表!F3:F81,コスト表!E3:E81,"マスター",コスト表!H3:H81,"完了")</f>
+        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"マスター",コスト表!I3:I82,"完了")</f>
         <v>0</v>
       </c>
       <c r="O8" s="2"/>
@@ -4888,7 +5016,7 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="39">
         <f>DATE(2025,6,30)</f>
@@ -4896,11 +5024,11 @@
       </c>
       <c r="D9" s="40">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="44">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>3.2142857142857144</v>
+        <v>3.5769230769230771</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4916,7 +5044,7 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="48">
         <f>DATE(2025,7,10)</f>
@@ -4924,11 +5052,11 @@
       </c>
       <c r="D10" s="49">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="50">
         <f ca="1">($I$5 - $N$5) / D10</f>
-        <v>2.5357142857142856</v>
+        <v>2.3846153846153846</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4944,7 +5072,7 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" s="36">
         <f>DATE(2025,7,21)</f>
@@ -4952,11 +5080,11 @@
       </c>
       <c r="D11" s="41">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="45">
         <f ca="1">($I$6 - $N$6) / D11</f>
-        <v>0.5357142857142857</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4972,7 +5100,7 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C12" s="37">
         <f>DATE(2025,8,20)</f>
@@ -4980,7 +5108,7 @@
       </c>
       <c r="D12" s="42">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="46">
         <f ca="1">($I$7 - $N$7) / D12</f>
@@ -5000,7 +5128,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" s="38">
         <f>DATE(2025,9,20)</f>
@@ -5008,11 +5136,11 @@
       </c>
       <c r="D13" s="43">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="47">
         <f ca="1">($I$8 - $N$8) / D13</f>
-        <v>0.14285714285714285</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5062,11 +5190,11 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" s="8">
-        <f>SUMIF(コスト表!D3:D81,"S",コスト表!F3:F81)</f>
-        <v>35.5</v>
+        <f>SUMIF(コスト表!E3:E82,"S",コスト表!G3:G82)</f>
+        <v>37</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -5084,10 +5212,10 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" s="8">
-        <f>SUMIF(コスト表!D3:D81,"A",コスト表!F3:F81)</f>
+        <f>SUMIF(コスト表!E3:E82,"A",コスト表!G3:G82)</f>
         <v>9.5</v>
       </c>
       <c r="D17" s="2"/>
@@ -5106,10 +5234,10 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" s="8">
-        <f>SUMIF(コスト表!D3:D81,"B",コスト表!F3:F81)</f>
+        <f>SUMIF(コスト表!E3:E82,"B",コスト表!G3:G82)</f>
         <v>0</v>
       </c>
       <c r="D18" s="2"/>
@@ -5128,10 +5256,10 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C19" s="8">
-        <f>SUMIF(コスト表!D3:D81,"C",コスト表!F3:F81)</f>
+        <f>SUMIF(コスト表!E3:E82,"C",コスト表!G3:G82)</f>
         <v>0</v>
       </c>
       <c r="D19" s="2"/>

--- a/BLUE PROTOCOL(ゲーム名が決まっていない)_コスト表.xlsx
+++ b/BLUE PROTOCOL(ゲーム名が決まっていない)_コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\立石 喜遼\Documents\GitHub\Game2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537783A9-8007-4CE9-A27D-6532FA6A0BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47A14AC-4E3D-4C66-99EA-1E6C4E884D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{A3C85D7E-55A7-4ED3-8EC8-9A17E23A1654}"/>
+    <workbookView xWindow="1185" yWindow="405" windowWidth="25830" windowHeight="14055" activeTab="1" xr2:uid="{A3C85D7E-55A7-4ED3-8EC8-9A17E23A1654}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="3" r:id="rId1"/>
@@ -983,7 +983,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4FD1FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -993,41 +1021,14 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF9751CB"/>
+          <bgColor rgb="FFA9DA74"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0BA8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFEBF86E"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFD757"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1037,14 +1038,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF9751CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1112,28 +1106,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4FD1FF"/>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1143,14 +1116,41 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFA9DA74"/>
+          <bgColor rgb="FF9751CB"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFD757"/>
+          <bgColor rgb="FF0BA8EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEBF86E"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1160,7 +1160,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FF9751CB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1372,8 +1372,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.5950398307993614E-2"/>
-                  <c:y val="-0.67802108678021089"/>
+                  <c:x val="0.13443523837916949"/>
+                  <c:y val="-0.6682887266828873"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1394,8 +1394,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.60165278815595524"/>
-                  <c:y val="0.54501216545012166"/>
+                  <c:x val="0.5663910862860092"/>
+                  <c:y val="0.41200324412003242"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2657,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3215,7 +3215,7 @@
         <v>47</v>
       </c>
       <c r="G22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4" t="s">
@@ -3241,7 +3241,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
@@ -3267,7 +3267,7 @@
         <v>47</v>
       </c>
       <c r="G24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
@@ -3290,10 +3290,10 @@
         <v>21</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4" t="s">
@@ -3316,10 +3316,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4" t="s">
@@ -3342,7 +3342,7 @@
         <v>21</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
@@ -3361,13 +3361,13 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
@@ -3383,13 +3383,13 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4" t="s">
@@ -3405,13 +3405,13 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4" t="s">
@@ -3427,13 +3427,13 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4" t="s">
@@ -3449,13 +3449,13 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4" t="s">
@@ -3627,10 +3627,10 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
@@ -3649,10 +3649,10 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
@@ -3671,10 +3671,10 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
@@ -3692,10 +3692,10 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
@@ -3714,10 +3714,10 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
@@ -3736,10 +3736,10 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="G44" s="4">
         <v>0</v>
@@ -3758,10 +3758,10 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="G45" s="4">
         <v>0</v>
@@ -3780,10 +3780,10 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
@@ -3802,10 +3802,10 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="G47" s="4">
         <v>0</v>
@@ -3824,10 +3824,10 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
@@ -3846,10 +3846,10 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
@@ -3868,10 +3868,10 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="G50" s="4">
         <v>0</v>
@@ -4519,7 +4519,7 @@
         <v>19</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G79" s="4">
         <v>0</v>
@@ -4613,56 +4613,27 @@
   </sheetData>
   <autoFilter ref="B2:I82" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}"/>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B51:I82 E39:I42 C43:I50 B34:B50 B3:I33 C34:I38">
-    <cfRule type="expression" dxfId="6" priority="1">
+  <conditionalFormatting sqref="C34:I38 B34:B50 C43:E50 B3:I33 E39:E51 F39:I50 B51:I82">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>$I3="作業停止中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>$I3="機能削除"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>$I3="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>$I3="バグ発生中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>$I3="完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>$I3="作業停止中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$I3="中平"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E82">
-    <cfRule type="expression" dxfId="21" priority="10">
-      <formula>$E3="S"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="11">
-      <formula>$E3="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="12">
-      <formula>$E3="B"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="13">
-      <formula>$E3="C"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79:I82 I52:I56 I58:I77 I44:I50 I3:I39">
-    <cfRule type="expression" dxfId="17" priority="14">
-      <formula>$D2=" 完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51 I78">
-    <cfRule type="expression" dxfId="16" priority="28">
-      <formula>#REF!=" 完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57 I41:I43">
-    <cfRule type="expression" dxfId="15" priority="30">
-      <formula>$D39=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:D41 D42">
@@ -4688,8 +4659,37 @@
       <formula>$I40="中平"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E82">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>$E3="S"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11">
+      <formula>$E3="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="12">
+      <formula>$E3="B"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="13">
+      <formula>$E3="C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I39 I44:I50 I52:I56 I58:I77 I79:I82">
+    <cfRule type="expression" dxfId="3" priority="14">
+      <formula>$D2=" 完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="7" priority="61">
+    <cfRule type="expression" dxfId="2" priority="61">
+      <formula>#REF!=" 完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:I43 I57">
+    <cfRule type="expression" dxfId="1" priority="30">
+      <formula>$D39=" 完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51 I78">
+    <cfRule type="expression" dxfId="0" priority="28">
       <formula>#REF!=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4715,8 +4715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FB1CEF-8502-4511-8513-ADAD0CAF1FF3}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="C4" s="30">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D4" s="31">
         <f ca="1" xml:space="preserve"> C3/ C4</f>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="I5" s="27">
         <f>SUMIF(コスト表!F3:F82,"プロト",コスト表!G3:G82)</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J5" s="19">
         <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"プロト",コスト表!I3:I82,"作業中")</f>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="2"/>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="I8" s="8">
         <f>SUMIF(コスト表!F3:F82,"マスター",コスト表!G3:G82)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J8" s="8">
         <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"マスター",コスト表!I3:I82,"作業中")</f>
@@ -5024,11 +5024,11 @@
       </c>
       <c r="D9" s="40">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="44">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>3.5769230769230771</v>
+        <v>3.875</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5052,11 +5052,11 @@
       </c>
       <c r="D10" s="49">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="50">
         <f ca="1">($I$5 - $N$5) / D10</f>
-        <v>2.3846153846153846</v>
+        <v>3.0833333333333335</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -5080,11 +5080,11 @@
       </c>
       <c r="D11" s="41">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="45">
         <f ca="1">($I$6 - $N$6) / D11</f>
-        <v>0.57692307692307687</v>
+        <v>0.625</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="D12" s="42">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="46">
         <f ca="1">($I$7 - $N$7) / D12</f>
@@ -5136,11 +5136,11 @@
       </c>
       <c r="D13" s="43">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="47">
         <f ca="1">($I$8 - $N$8) / D13</f>
-        <v>0.61538461538461542</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="C16" s="8">
         <f>SUMIF(コスト表!E3:E82,"S",コスト表!G3:G82)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="C17" s="8">
         <f>SUMIF(コスト表!E3:E82,"A",コスト表!G3:G82)</f>
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>

--- a/BLUE PROTOCOL(ゲーム名が決まっていない)_コスト表.xlsx
+++ b/BLUE PROTOCOL(ゲーム名が決まっていない)_コスト表.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\立石 喜遼\Documents\GitHub\Game2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47A14AC-4E3D-4C66-99EA-1E6C4E884D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E094B3D-AD45-4CC9-A7A7-FC2ED750DAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="405" windowWidth="25830" windowHeight="14055" activeTab="1" xr2:uid="{A3C85D7E-55A7-4ED3-8EC8-9A17E23A1654}"/>
+    <workbookView xWindow="15600" yWindow="4485" windowWidth="12750" windowHeight="11295" xr2:uid="{A3C85D7E-55A7-4ED3-8EC8-9A17E23A1654}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="3" r:id="rId1"/>
     <sheet name="作業状況" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$B$2:$I$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$B$2:$I$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="97">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -574,6 +574,50 @@
     </rPh>
     <rPh sb="1" eb="3">
       <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポリゴンの当たり判定</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>矩形の当たり判定</t>
+    <rPh sb="0" eb="2">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵1</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵2</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵3</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -979,7 +1023,14 @@
     <cellStyle name="アクセント 6" xfId="9" builtinId="49"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1593,10 +1644,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>46.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2655,10 +2706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3017,14 +3068,14 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
-      <c r="B15" s="7" t="s">
-        <v>84</v>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
@@ -3033,7 +3084,7 @@
         <v>47</v>
       </c>
       <c r="G15" s="4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
@@ -3043,23 +3094,23 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
-      <c r="B16" s="7" t="s">
-        <v>84</v>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
@@ -3076,7 +3127,7 @@
         <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>21</v>
@@ -3085,11 +3136,11 @@
         <v>47</v>
       </c>
       <c r="G17" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J17" s="2"/>
     </row>
@@ -3102,7 +3153,7 @@
         <v>82</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>21</v>
@@ -3111,7 +3162,7 @@
         <v>47</v>
       </c>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
@@ -3128,7 +3179,7 @@
         <v>82</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>21</v>
@@ -3154,7 +3205,7 @@
         <v>82</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>21</v>
@@ -3180,7 +3231,7 @@
         <v>82</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>21</v>
@@ -3206,7 +3257,7 @@
         <v>82</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>21</v>
@@ -3215,7 +3266,7 @@
         <v>47</v>
       </c>
       <c r="G22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4" t="s">
@@ -3232,7 +3283,7 @@
         <v>82</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>21</v>
@@ -3241,7 +3292,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
@@ -3258,7 +3309,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>21</v>
@@ -3284,7 +3335,7 @@
         <v>82</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
@@ -3310,7 +3361,7 @@
         <v>82</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>21</v>
@@ -3336,7 +3387,7 @@
         <v>82</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>21</v>
@@ -3358,16 +3409,20 @@
       <c r="B28" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E28" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
@@ -3380,16 +3435,20 @@
       <c r="B29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E29" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4" t="s">
@@ -3465,20 +3524,16 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
-      <c r="B33" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="B33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G33" s="4">
         <v>0</v>
@@ -3491,20 +3546,16 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
-      <c r="B34" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
@@ -3524,7 +3575,7 @@
         <v>91</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>21</v>
@@ -3550,7 +3601,7 @@
         <v>91</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>21</v>
@@ -3576,7 +3627,7 @@
         <v>91</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>21</v>
@@ -3602,7 +3653,7 @@
         <v>91</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>21</v>
@@ -3624,13 +3675,17 @@
       <c r="B39" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E39" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
@@ -3646,13 +3701,17 @@
       <c r="B40" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="E40" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
@@ -3668,7 +3727,9 @@
       <c r="B41" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="4" t="s">
         <v>19</v>
@@ -3690,6 +3751,9 @@
       <c r="B42" s="51" t="s">
         <v>83</v>
       </c>
+      <c r="C42" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="4" t="s">
         <v>19</v>
@@ -3711,7 +3775,9 @@
       <c r="B43" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="4" t="s">
         <v>19</v>
@@ -3733,7 +3799,9 @@
       <c r="B44" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4" t="s">
         <v>19</v>
@@ -3755,7 +3823,9 @@
       <c r="B45" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="4" t="s">
         <v>19</v>
@@ -3777,7 +3847,9 @@
       <c r="B46" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="4" t="s">
         <v>19</v>
@@ -3884,8 +3956,8 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
-      <c r="B51" s="1" t="s">
-        <v>5</v>
+      <c r="B51" s="51" t="s">
+        <v>83</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -3906,8 +3978,8 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="2"/>
-      <c r="B52" s="1" t="s">
-        <v>5</v>
+      <c r="B52" s="51" t="s">
+        <v>83</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -3928,21 +4000,19 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
-      <c r="B53" s="52" t="s">
-        <v>6</v>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G53" s="4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4" t="s">
@@ -3952,21 +4022,19 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="2"/>
-      <c r="B54" s="52" t="s">
-        <v>6</v>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G54" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4" t="s">
@@ -3981,7 +4049,7 @@
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>21</v>
@@ -3994,7 +4062,7 @@
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J55" s="2"/>
     </row>
@@ -4005,7 +4073,7 @@
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>21</v>
@@ -4014,11 +4082,11 @@
         <v>47</v>
       </c>
       <c r="G56" s="4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J56" s="2"/>
     </row>
@@ -4029,7 +4097,7 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>21</v>
@@ -4048,19 +4116,21 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
-      <c r="B58" s="1" t="s">
-        <v>7</v>
+      <c r="B58" s="52" t="s">
+        <v>6</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E58" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G58" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
@@ -4070,19 +4140,21 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
-      <c r="B59" s="1" t="s">
-        <v>7</v>
+      <c r="B59" s="52" t="s">
+        <v>6</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="E59" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G59" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4" t="s">
@@ -4247,7 +4319,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -4269,7 +4341,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -4335,7 +4407,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -4357,7 +4429,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -4489,7 +4561,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="2"/>
       <c r="B78" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4511,7 +4583,7 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -4577,20 +4649,18 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="2"/>
       <c r="B82" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C82" s="3"/>
-      <c r="D82" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="D82" s="3"/>
       <c r="E82" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G82" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4" t="s">
@@ -4600,110 +4670,161 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
+      <c r="B83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="4">
+        <v>0</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J83" s="2"/>
     </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A84" s="2"/>
+      <c r="B84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="4">
+        <v>2</v>
+      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:I82" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}"/>
+  <autoFilter ref="B2:I84" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}"/>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C34:I38 B34:B50 C43:E50 B3:I33 E39:E51 F39:I50 B51:I82">
-    <cfRule type="expression" dxfId="21" priority="1">
+  <conditionalFormatting sqref="C36:I40 B36:B52 F41:I52 E41:E53 C47:E52 B53:I84 B3:I35 D45:E46">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>$I3="作業停止中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>$I3="機能削除"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>$I3="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>$I3="バグ発生中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>$I3="完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>$I3="作業停止中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>$I3="中平"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:D41 D42">
-    <cfRule type="expression" dxfId="14" priority="38">
-      <formula>$I40="作業停止中"</formula>
+  <conditionalFormatting sqref="C41:D44 C45:C46">
+    <cfRule type="expression" dxfId="15" priority="38">
+      <formula>$I42="作業停止中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="39">
-      <formula>$I40="機能削除"</formula>
+    <cfRule type="expression" dxfId="14" priority="39">
+      <formula>$I42="機能削除"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="40">
-      <formula>$I40="作業中"</formula>
+    <cfRule type="expression" dxfId="13" priority="40">
+      <formula>$I42="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="41">
-      <formula>$I40="バグ発生中"</formula>
+    <cfRule type="expression" dxfId="12" priority="41">
+      <formula>$I42="バグ発生中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="42">
-      <formula>$I40="完了"</formula>
+    <cfRule type="expression" dxfId="11" priority="42">
+      <formula>$I42="完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="43">
-      <formula>$I40="作業停止中"</formula>
+    <cfRule type="expression" dxfId="10" priority="43">
+      <formula>$I42="作業停止中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="44">
-      <formula>$I40="中平"</formula>
+    <cfRule type="expression" dxfId="9" priority="44">
+      <formula>$I42="中平"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E82">
-    <cfRule type="expression" dxfId="7" priority="10">
+  <conditionalFormatting sqref="E3:E84">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$E3="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>$E3="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>$E3="B"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>$E3="C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I39 I44:I50 I52:I56 I58:I77 I79:I82">
-    <cfRule type="expression" dxfId="3" priority="14">
+  <conditionalFormatting sqref="I46:I52 I54:I58 I60:I79 I81:I84 I17:I41 I3:I14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>$D2=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="2" priority="61">
+  <conditionalFormatting sqref="I42">
+    <cfRule type="expression" dxfId="3" priority="61">
       <formula>#REF!=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I43 I57">
-    <cfRule type="expression" dxfId="1" priority="30">
-      <formula>$D39=" 完了"</formula>
+  <conditionalFormatting sqref="I43:I45 I59 I15">
+    <cfRule type="expression" dxfId="2" priority="30">
+      <formula>$D13=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51 I78">
-    <cfRule type="expression" dxfId="0" priority="28">
+  <conditionalFormatting sqref="I53 I80">
+    <cfRule type="expression" dxfId="1" priority="28">
       <formula>#REF!=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I16">
+    <cfRule type="expression" dxfId="0" priority="64">
+      <formula>$D11=" 完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G82" xr:uid="{C9539A71-E4D4-40F2-A11D-7AFF2C80B02D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G84" xr:uid="{C9539A71-E4D4-40F2-A11D-7AFF2C80B02D}">
       <formula1>"0,0.25,0.5,0.75,1,1.25,1.5,1.75,2,2.25,2.5,2.75,3,3.25,3.5,3.75,4,4.25,4.5,4.75,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I82" xr:uid="{10FA913D-EE08-4753-B15B-6660EE5D6060}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I84" xr:uid="{10FA913D-EE08-4753-B15B-6660EE5D6060}">
       <formula1>"未着手,作業中,作業停止中,バグ発生中,機能削除,完了"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E82" xr:uid="{15873D23-46B3-40A2-AEB6-F78E83DA3218}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E84" xr:uid="{15873D23-46B3-40A2-AEB6-F78E83DA3218}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F82" xr:uid="{DECCE2DD-44D0-4408-AA9F-503AF0DB6DB4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F84" xr:uid="{DECCE2DD-44D0-4408-AA9F-503AF0DB6DB4}">
       <formula1>"プロト,α,β,マスター"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4715,7 +4836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FB1CEF-8502-4511-8513-ADAD0CAF1FF3}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -4754,8 +4875,8 @@
         <v>22</v>
       </c>
       <c r="C2" s="8">
-        <f>SUM(コスト表!G3:G82)</f>
-        <v>46.5</v>
+        <f>SUM(コスト表!G3:G84)</f>
+        <v>50.5</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="2"/>
@@ -4776,7 +4897,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="8">
-        <f>SUMIF(コスト表!I3:I82,"完了",コスト表!G3:G82)</f>
+        <f>SUMIF(コスト表!I3:I84,"完了",コスト表!G3:G84)</f>
         <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -4813,7 +4934,7 @@
       </c>
       <c r="C4" s="30">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D4" s="31">
         <f ca="1" xml:space="preserve"> C3/ C4</f>
@@ -4826,27 +4947,27 @@
         <v>32</v>
       </c>
       <c r="I4" s="8">
-        <f>SUM(コスト表!G3:G82)</f>
-        <v>46.5</v>
+        <f>SUM(コスト表!G3:G84)</f>
+        <v>50.5</v>
       </c>
       <c r="J4" s="8">
-        <f>SUMIF(コスト表!I3:I82,"作業中",コスト表!G3:G82)</f>
-        <v>13</v>
+        <f>SUMIF(コスト表!I3:I84,"作業中",コスト表!G3:G84)</f>
+        <v>17</v>
       </c>
       <c r="K4" s="8">
-        <f>SUMIF(コスト表!I3:I82,"作業停止中",コスト表!G3:G82)</f>
+        <f>SUMIF(コスト表!I3:I84,"作業停止中",コスト表!G3:G84)</f>
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <f>SUMIF(コスト表!I3:I82,"バグ発生中",コスト表!G3:G82)</f>
+        <f>SUMIF(コスト表!I3:I84,"バグ発生中",コスト表!G3:G84)</f>
         <v>0</v>
       </c>
       <c r="M4" s="8">
-        <f>SUMIF(コスト表!I3:I82,"機能削除",コスト表!G3:G82)</f>
+        <f>SUMIF(コスト表!I3:I84,"機能削除",コスト表!G3:G84)</f>
         <v>0</v>
       </c>
       <c r="N4" s="8">
-        <f>SUMIF(コスト表!I3:I82,"完了",コスト表!G3:G82)</f>
+        <f>SUMIF(コスト表!I3:I84,"完了",コスト表!G3:G84)</f>
         <v>0</v>
       </c>
       <c r="O4" s="2"/>
@@ -4868,27 +4989,27 @@
         <v>34</v>
       </c>
       <c r="I5" s="27">
-        <f>SUMIF(コスト表!F3:F82,"プロト",コスト表!G3:G82)</f>
-        <v>37</v>
+        <f>SUMIF(コスト表!F3:F84,"プロト",コスト表!G3:G84)</f>
+        <v>41</v>
       </c>
       <c r="J5" s="19">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"プロト",コスト表!I3:I82,"作業中")</f>
-        <v>13</v>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"プロト",コスト表!I3:I84,"作業中")</f>
+        <v>17</v>
       </c>
       <c r="K5" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"プロト",コスト表!I3:I82,"作業停止中")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"プロト",コスト表!I3:I84,"作業停止中")</f>
         <v>0</v>
       </c>
       <c r="L5" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"プロト",コスト表!I3:I82,"バグ発生中")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"プロト",コスト表!I3:I84,"バグ発生中")</f>
         <v>0</v>
       </c>
       <c r="M5" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"プロト",コスト表!I3:I82,"機能削除")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"プロト",コスト表!I3:I84,"機能削除")</f>
         <v>0</v>
       </c>
       <c r="N5" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"プロト",コスト表!I3:I82,"完了")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"プロト",コスト表!I3:I84,"完了")</f>
         <v>0</v>
       </c>
       <c r="O5" s="2"/>
@@ -4900,7 +5021,7 @@
       </c>
       <c r="C6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="2"/>
@@ -4910,27 +5031,27 @@
         <v>36</v>
       </c>
       <c r="I6" s="8">
-        <f>SUMIF(コスト表!F3:F82,"α",コスト表!G3:G82)</f>
+        <f>SUMIF(コスト表!F3:F84,"α",コスト表!G3:G84)</f>
         <v>7.5</v>
       </c>
       <c r="J6" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"α",コスト表!I3:I82,"作業中")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"α",コスト表!I3:I84,"作業中")</f>
         <v>0</v>
       </c>
       <c r="K6" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"α",コスト表!I3:I82,"作業停止中")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"α",コスト表!I3:I84,"作業停止中")</f>
         <v>0</v>
       </c>
       <c r="L6" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"α",コスト表!I3:I82,"バグ発生中")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"α",コスト表!I3:I84,"バグ発生中")</f>
         <v>0</v>
       </c>
       <c r="M6" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"α",コスト表!I3:I82,"機能削除")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"α",コスト表!I3:I84,"機能削除")</f>
         <v>0</v>
       </c>
       <c r="N6" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"α",コスト表!I3:I82,"完了")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"α",コスト表!I3:I84,"完了")</f>
         <v>0</v>
       </c>
       <c r="O6" s="2"/>
@@ -4947,27 +5068,27 @@
         <v>37</v>
       </c>
       <c r="I7" s="8">
-        <f>SUMIF(コスト表!F3:F82,"β",コスト表!G3:G82)</f>
+        <f>SUMIF(コスト表!F3:F84,"β",コスト表!G3:G84)</f>
         <v>0</v>
       </c>
       <c r="J7" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"β",コスト表!I3:I82,"作業中")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"β",コスト表!I3:I84,"作業中")</f>
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"β",コスト表!I3:I82,"作業停止中")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"β",コスト表!I3:I84,"作業停止中")</f>
         <v>0</v>
       </c>
       <c r="L7" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"β",コスト表!I3:I82,"バグ発生中")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"β",コスト表!I3:I84,"バグ発生中")</f>
         <v>0</v>
       </c>
       <c r="M7" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"β",コスト表!I3:I82,"機能削除")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"β",コスト表!I3:I84,"機能削除")</f>
         <v>0</v>
       </c>
       <c r="N7" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"β",コスト表!I3:I82,"完了")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"β",コスト表!I3:I84,"完了")</f>
         <v>0</v>
       </c>
       <c r="O7" s="2"/>
@@ -4988,27 +5109,27 @@
         <v>40</v>
       </c>
       <c r="I8" s="8">
-        <f>SUMIF(コスト表!F3:F82,"マスター",コスト表!G3:G82)</f>
+        <f>SUMIF(コスト表!F3:F84,"マスター",コスト表!G3:G84)</f>
         <v>2</v>
       </c>
       <c r="J8" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"マスター",コスト表!I3:I82,"作業中")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"マスター",コスト表!I3:I84,"作業中")</f>
         <v>0</v>
       </c>
       <c r="K8" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"マスター",コスト表!I3:I82,"作業停止中")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"マスター",コスト表!I3:I84,"作業停止中")</f>
         <v>0</v>
       </c>
       <c r="L8" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"マスター",コスト表!I3:I82,"バグ発生中")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"マスター",コスト表!I3:I84,"バグ発生中")</f>
         <v>0</v>
       </c>
       <c r="M8" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"マスター",コスト表!I3:I82,"機能削除")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"マスター",コスト表!I3:I84,"機能削除")</f>
         <v>0</v>
       </c>
       <c r="N8" s="8">
-        <f>SUMIFS(コスト表!G3:G82,コスト表!F3:F82,"マスター",コスト表!I3:I82,"完了")</f>
+        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"マスター",コスト表!I3:I84,"完了")</f>
         <v>0</v>
       </c>
       <c r="O8" s="2"/>
@@ -5024,11 +5145,11 @@
       </c>
       <c r="D9" s="40">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="44">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>3.875</v>
+        <v>4.5909090909090908</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5052,11 +5173,11 @@
       </c>
       <c r="D10" s="49">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="50">
         <f ca="1">($I$5 - $N$5) / D10</f>
-        <v>3.0833333333333335</v>
+        <v>3.7272727272727271</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -5080,11 +5201,11 @@
       </c>
       <c r="D11" s="41">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="45">
         <f ca="1">($I$6 - $N$6) / D11</f>
-        <v>0.625</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -5108,7 +5229,7 @@
       </c>
       <c r="D12" s="42">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="46">
         <f ca="1">($I$7 - $N$7) / D12</f>
@@ -5136,11 +5257,11 @@
       </c>
       <c r="D13" s="43">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="47">
         <f ca="1">($I$8 - $N$8) / D13</f>
-        <v>0.16666666666666666</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5193,8 +5314,8 @@
         <v>41</v>
       </c>
       <c r="C16" s="8">
-        <f>SUMIF(コスト表!E3:E82,"S",コスト表!G3:G82)</f>
-        <v>39</v>
+        <f>SUMIF(コスト表!E3:E84,"S",コスト表!G3:G84)</f>
+        <v>41</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -5215,8 +5336,8 @@
         <v>42</v>
       </c>
       <c r="C17" s="8">
-        <f>SUMIF(コスト表!E3:E82,"A",コスト表!G3:G82)</f>
-        <v>7.5</v>
+        <f>SUMIF(コスト表!E3:E84,"A",コスト表!G3:G84)</f>
+        <v>9.5</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -5237,7 +5358,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="8">
-        <f>SUMIF(コスト表!E3:E82,"B",コスト表!G3:G82)</f>
+        <f>SUMIF(コスト表!E3:E84,"B",コスト表!G3:G84)</f>
         <v>0</v>
       </c>
       <c r="D18" s="2"/>
@@ -5259,7 +5380,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="8">
-        <f>SUMIF(コスト表!E3:E82,"C",コスト表!G3:G82)</f>
+        <f>SUMIF(コスト表!E3:E84,"C",コスト表!G3:G84)</f>
         <v>0</v>
       </c>
       <c r="D19" s="2"/>

--- a/BLUE PROTOCOL(ゲーム名が決まっていない)_コスト表.xlsx
+++ b/BLUE PROTOCOL(ゲーム名が決まっていない)_コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\立石 喜遼\Documents\GitHub\Game2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E094B3D-AD45-4CC9-A7A7-FC2ED750DAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070DA801-B905-48A7-84C1-69B88ECCB04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="4485" windowWidth="12750" windowHeight="11295" xr2:uid="{A3C85D7E-55A7-4ED3-8EC8-9A17E23A1654}"/>
+    <workbookView xWindow="14985" yWindow="2175" windowWidth="12750" windowHeight="11295" xr2:uid="{A3C85D7E-55A7-4ED3-8EC8-9A17E23A1654}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="3" r:id="rId1"/>

--- a/BLUE PROTOCOL(ゲーム名が決まっていない)_コスト表.xlsx
+++ b/BLUE PROTOCOL(ゲーム名が決まっていない)_コスト表.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\立石 喜遼\Documents\GitHub\Game2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070DA801-B905-48A7-84C1-69B88ECCB04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7D76CC-D3D5-4743-B02D-714E3BA70634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14985" yWindow="2175" windowWidth="12750" windowHeight="11295" xr2:uid="{A3C85D7E-55A7-4ED3-8EC8-9A17E23A1654}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3C85D7E-55A7-4ED3-8EC8-9A17E23A1654}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="3" r:id="rId1"/>
     <sheet name="作業状況" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$B$2:$I$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$B$2:$I$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="99">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -620,6 +620,12 @@
       <t>テキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>作業停止中</t>
   </si>
 </sst>
 </file>
@@ -1644,13 +1650,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>50.5</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1659,7 +1665,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2706,10 +2712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3138,9 +3144,11 @@
       <c r="G17" s="4">
         <v>0.5</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
       <c r="I17" s="4" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="J17" s="2"/>
     </row>
@@ -3188,7 +3196,7 @@
         <v>47</v>
       </c>
       <c r="G19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4" t="s">
@@ -3214,7 +3222,7 @@
         <v>47</v>
       </c>
       <c r="G20" s="4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
@@ -3240,7 +3248,7 @@
         <v>47</v>
       </c>
       <c r="G21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
@@ -3266,7 +3274,7 @@
         <v>47</v>
       </c>
       <c r="G22" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4" t="s">
@@ -3283,7 +3291,7 @@
         <v>82</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>21</v>
@@ -3292,11 +3300,13 @@
         <v>47</v>
       </c>
       <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.25</v>
+      </c>
       <c r="I23" s="4" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="J23" s="2"/>
     </row>
@@ -3309,7 +3319,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>21</v>
@@ -3318,11 +3328,11 @@
         <v>47</v>
       </c>
       <c r="G24" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="J24" s="2"/>
     </row>
@@ -3335,7 +3345,7 @@
         <v>82</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
@@ -3361,7 +3371,7 @@
         <v>82</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>21</v>
@@ -3387,7 +3397,7 @@
         <v>82</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>21</v>
@@ -3413,7 +3423,7 @@
         <v>82</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>21</v>
@@ -3439,7 +3449,7 @@
         <v>82</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>21</v>
@@ -3461,16 +3471,20 @@
       <c r="B30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E30" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4" t="s">
@@ -3568,20 +3582,16 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
-      <c r="B35" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="B35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G35" s="4">
         <v>0</v>
@@ -3601,7 +3611,7 @@
         <v>91</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>21</v>
@@ -3627,7 +3637,7 @@
         <v>91</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>21</v>
@@ -3653,7 +3663,7 @@
         <v>91</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>21</v>
@@ -3679,7 +3689,7 @@
         <v>91</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>21</v>
@@ -3705,7 +3715,7 @@
         <v>91</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>21</v>
@@ -3728,14 +3738,16 @@
         <v>83</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="E41" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
@@ -3776,7 +3788,7 @@
         <v>83</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="4" t="s">
@@ -3824,7 +3836,7 @@
         <v>83</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="4" t="s">
@@ -3871,7 +3883,9 @@
       <c r="B47" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="4" t="s">
         <v>19</v>
@@ -4000,8 +4014,8 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
-      <c r="B53" s="1" t="s">
-        <v>5</v>
+      <c r="B53" s="51" t="s">
+        <v>83</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -4044,25 +4058,23 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
-      <c r="B55" s="52" t="s">
-        <v>6</v>
+      <c r="B55" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="D55" s="3"/>
       <c r="E55" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G55" s="4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="J55" s="2"/>
     </row>
@@ -4073,7 +4085,7 @@
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>21</v>
@@ -4082,7 +4094,7 @@
         <v>47</v>
       </c>
       <c r="G56" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4" t="s">
@@ -4097,7 +4109,7 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>21</v>
@@ -4106,11 +4118,11 @@
         <v>47</v>
       </c>
       <c r="G57" s="4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J57" s="2"/>
     </row>
@@ -4121,7 +4133,7 @@
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>21</v>
@@ -4145,7 +4157,7 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>21</v>
@@ -4164,19 +4176,21 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
+      <c r="B60" s="52" t="s">
+        <v>6</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="E60" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G60" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4" t="s">
@@ -4363,7 +4377,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -4451,7 +4465,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -4605,7 +4619,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -4693,20 +4707,18 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="D84" s="3"/>
       <c r="E84" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G84" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4" t="s">
@@ -4716,20 +4728,44 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="B85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="4">
+        <v>2</v>
+      </c>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J85" s="2"/>
     </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:I84" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}"/>
+  <autoFilter ref="B2:I85" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}"/>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C36:I40 B36:B52 F41:I52 E41:E53 C47:E52 B53:I84 B3:I35 D45:E46">
+  <conditionalFormatting sqref="C37:I41 B37:B53 F42:I53 E42:E54 D46:E47 C48:E53 B54:I85 B3:I36">
     <cfRule type="expression" dxfId="22" priority="1">
       <formula>$I3="作業停止中"</formula>
     </cfRule>
@@ -4752,30 +4788,30 @@
       <formula>$I3="中平"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:D44 C45:C46">
+  <conditionalFormatting sqref="C42:D45 C46:C47">
     <cfRule type="expression" dxfId="15" priority="38">
-      <formula>$I42="作業停止中"</formula>
+      <formula>$I43="作業停止中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="39">
-      <formula>$I42="機能削除"</formula>
+      <formula>$I43="機能削除"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="40">
-      <formula>$I42="作業中"</formula>
+      <formula>$I43="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="41">
-      <formula>$I42="バグ発生中"</formula>
+      <formula>$I43="バグ発生中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="42">
-      <formula>$I42="完了"</formula>
+      <formula>$I43="完了"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="43">
-      <formula>$I42="作業停止中"</formula>
+      <formula>$I43="作業停止中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="44">
-      <formula>$I42="中平"</formula>
+      <formula>$I43="中平"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E84">
+  <conditionalFormatting sqref="E3:E85">
     <cfRule type="expression" dxfId="8" priority="10">
       <formula>$E3="S"</formula>
     </cfRule>
@@ -4789,42 +4825,42 @@
       <formula>$E3="C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:I52 I54:I58 I60:I79 I81:I84 I17:I41 I3:I14">
+  <conditionalFormatting sqref="I3:I14 I47:I53 I55:I59 I61:I80 I82:I85 I17:I23 I25:I42">
     <cfRule type="expression" dxfId="4" priority="14">
       <formula>$D2=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="3" priority="61">
-      <formula>#REF!=" 完了"</formula>
+  <conditionalFormatting sqref="I14:I16">
+    <cfRule type="expression" dxfId="3" priority="64">
+      <formula>$D11=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:I45 I59 I15">
+  <conditionalFormatting sqref="I15 I44:I46 I60 I24">
     <cfRule type="expression" dxfId="2" priority="30">
       <formula>$D13=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53 I80">
-    <cfRule type="expression" dxfId="1" priority="28">
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" dxfId="1" priority="61">
       <formula>#REF!=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I16">
-    <cfRule type="expression" dxfId="0" priority="64">
-      <formula>$D11=" 完了"</formula>
+  <conditionalFormatting sqref="I54 I81">
+    <cfRule type="expression" dxfId="0" priority="28">
+      <formula>#REF!=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G84" xr:uid="{C9539A71-E4D4-40F2-A11D-7AFF2C80B02D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G85" xr:uid="{C9539A71-E4D4-40F2-A11D-7AFF2C80B02D}">
       <formula1>"0,0.25,0.5,0.75,1,1.25,1.5,1.75,2,2.25,2.5,2.75,3,3.25,3.5,3.75,4,4.25,4.5,4.75,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I84" xr:uid="{10FA913D-EE08-4753-B15B-6660EE5D6060}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I85" xr:uid="{10FA913D-EE08-4753-B15B-6660EE5D6060}">
       <formula1>"未着手,作業中,作業停止中,バグ発生中,機能削除,完了"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E84" xr:uid="{15873D23-46B3-40A2-AEB6-F78E83DA3218}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E85" xr:uid="{15873D23-46B3-40A2-AEB6-F78E83DA3218}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F84" xr:uid="{DECCE2DD-44D0-4408-AA9F-503AF0DB6DB4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F85" xr:uid="{DECCE2DD-44D0-4408-AA9F-503AF0DB6DB4}">
       <formula1>"プロト,α,β,マスター"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4837,7 +4873,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4875,8 +4911,8 @@
         <v>22</v>
       </c>
       <c r="C2" s="8">
-        <f>SUM(コスト表!G3:G84)</f>
-        <v>50.5</v>
+        <f>SUM(コスト表!G3:G85)</f>
+        <v>55</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="2"/>
@@ -4897,8 +4933,8 @@
         <v>23</v>
       </c>
       <c r="C3" s="8">
-        <f>SUMIF(コスト表!I3:I84,"完了",コスト表!G3:G84)</f>
-        <v>0</v>
+        <f>SUMIF(コスト表!I3:I85,"完了",コスト表!G3:G85)</f>
+        <v>0.75</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>24</v>
@@ -4934,11 +4970,11 @@
       </c>
       <c r="C4" s="30">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D4" s="31">
         <f ca="1" xml:space="preserve"> C3/ C4</f>
-        <v>0</v>
+        <v>2.7675276752767526E-3</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -4947,28 +4983,28 @@
         <v>32</v>
       </c>
       <c r="I4" s="8">
-        <f>SUM(コスト表!G3:G84)</f>
-        <v>50.5</v>
+        <f>SUM(コスト表!G3:G85)</f>
+        <v>55</v>
       </c>
       <c r="J4" s="8">
-        <f>SUMIF(コスト表!I3:I84,"作業中",コスト表!G3:G84)</f>
-        <v>17</v>
+        <f>SUMIF(コスト表!I3:I85,"作業中",コスト表!G3:G85)</f>
+        <v>16.5</v>
       </c>
       <c r="K4" s="8">
-        <f>SUMIF(コスト表!I3:I84,"作業停止中",コスト表!G3:G84)</f>
-        <v>0</v>
+        <f>SUMIF(コスト表!I3:I85,"作業停止中",コスト表!G3:G85)</f>
+        <v>0.5</v>
       </c>
       <c r="L4" s="8">
-        <f>SUMIF(コスト表!I3:I84,"バグ発生中",コスト表!G3:G84)</f>
+        <f>SUMIF(コスト表!I3:I85,"バグ発生中",コスト表!G3:G85)</f>
         <v>0</v>
       </c>
       <c r="M4" s="8">
-        <f>SUMIF(コスト表!I3:I84,"機能削除",コスト表!G3:G84)</f>
+        <f>SUMIF(コスト表!I3:I85,"機能削除",コスト表!G3:G85)</f>
         <v>0</v>
       </c>
       <c r="N4" s="8">
-        <f>SUMIF(コスト表!I3:I84,"完了",コスト表!G3:G84)</f>
-        <v>0</v>
+        <f>SUMIF(コスト表!I3:I85,"完了",コスト表!G3:G85)</f>
+        <v>0.75</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -4989,28 +5025,28 @@
         <v>34</v>
       </c>
       <c r="I5" s="27">
-        <f>SUMIF(コスト表!F3:F84,"プロト",コスト表!G3:G84)</f>
-        <v>41</v>
+        <f>SUMIF(コスト表!F3:F85,"プロト",コスト表!G3:G85)</f>
+        <v>45.5</v>
       </c>
       <c r="J5" s="19">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"プロト",コスト表!I3:I84,"作業中")</f>
-        <v>17</v>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"プロト",コスト表!I3:I85,"作業中")</f>
+        <v>16.5</v>
       </c>
       <c r="K5" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"プロト",コスト表!I3:I84,"作業停止中")</f>
-        <v>0</v>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"プロト",コスト表!I3:I85,"作業停止中")</f>
+        <v>0.5</v>
       </c>
       <c r="L5" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"プロト",コスト表!I3:I84,"バグ発生中")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"プロト",コスト表!I3:I85,"バグ発生中")</f>
         <v>0</v>
       </c>
       <c r="M5" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"プロト",コスト表!I3:I84,"機能削除")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"プロト",コスト表!I3:I85,"機能削除")</f>
         <v>0</v>
       </c>
       <c r="N5" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"プロト",コスト表!I3:I84,"完了")</f>
-        <v>0</v>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"プロト",コスト表!I3:I85,"完了")</f>
+        <v>0.75</v>
       </c>
       <c r="O5" s="2"/>
     </row>
@@ -5021,7 +5057,7 @@
       </c>
       <c r="C6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="2"/>
@@ -5031,27 +5067,27 @@
         <v>36</v>
       </c>
       <c r="I6" s="8">
-        <f>SUMIF(コスト表!F3:F84,"α",コスト表!G3:G84)</f>
+        <f>SUMIF(コスト表!F3:F85,"α",コスト表!G3:G85)</f>
         <v>7.5</v>
       </c>
       <c r="J6" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"α",コスト表!I3:I84,"作業中")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"α",コスト表!I3:I85,"作業中")</f>
         <v>0</v>
       </c>
       <c r="K6" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"α",コスト表!I3:I84,"作業停止中")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"α",コスト表!I3:I85,"作業停止中")</f>
         <v>0</v>
       </c>
       <c r="L6" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"α",コスト表!I3:I84,"バグ発生中")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"α",コスト表!I3:I85,"バグ発生中")</f>
         <v>0</v>
       </c>
       <c r="M6" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"α",コスト表!I3:I84,"機能削除")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"α",コスト表!I3:I85,"機能削除")</f>
         <v>0</v>
       </c>
       <c r="N6" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"α",コスト表!I3:I84,"完了")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"α",コスト表!I3:I85,"完了")</f>
         <v>0</v>
       </c>
       <c r="O6" s="2"/>
@@ -5068,27 +5104,27 @@
         <v>37</v>
       </c>
       <c r="I7" s="8">
-        <f>SUMIF(コスト表!F3:F84,"β",コスト表!G3:G84)</f>
+        <f>SUMIF(コスト表!F3:F85,"β",コスト表!G3:G85)</f>
         <v>0</v>
       </c>
       <c r="J7" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"β",コスト表!I3:I84,"作業中")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"β",コスト表!I3:I85,"作業中")</f>
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"β",コスト表!I3:I84,"作業停止中")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"β",コスト表!I3:I85,"作業停止中")</f>
         <v>0</v>
       </c>
       <c r="L7" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"β",コスト表!I3:I84,"バグ発生中")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"β",コスト表!I3:I85,"バグ発生中")</f>
         <v>0</v>
       </c>
       <c r="M7" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"β",コスト表!I3:I84,"機能削除")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"β",コスト表!I3:I85,"機能削除")</f>
         <v>0</v>
       </c>
       <c r="N7" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"β",コスト表!I3:I84,"完了")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"β",コスト表!I3:I85,"完了")</f>
         <v>0</v>
       </c>
       <c r="O7" s="2"/>
@@ -5109,27 +5145,27 @@
         <v>40</v>
       </c>
       <c r="I8" s="8">
-        <f>SUMIF(コスト表!F3:F84,"マスター",コスト表!G3:G84)</f>
+        <f>SUMIF(コスト表!F3:F85,"マスター",コスト表!G3:G85)</f>
         <v>2</v>
       </c>
       <c r="J8" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"マスター",コスト表!I3:I84,"作業中")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"マスター",コスト表!I3:I85,"作業中")</f>
         <v>0</v>
       </c>
       <c r="K8" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"マスター",コスト表!I3:I84,"作業停止中")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"マスター",コスト表!I3:I85,"作業停止中")</f>
         <v>0</v>
       </c>
       <c r="L8" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"マスター",コスト表!I3:I84,"バグ発生中")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"マスター",コスト表!I3:I85,"バグ発生中")</f>
         <v>0</v>
       </c>
       <c r="M8" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"マスター",コスト表!I3:I84,"機能削除")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"マスター",コスト表!I3:I85,"機能削除")</f>
         <v>0</v>
       </c>
       <c r="N8" s="8">
-        <f>SUMIFS(コスト表!G3:G84,コスト表!F3:F84,"マスター",コスト表!I3:I84,"完了")</f>
+        <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"マスター",コスト表!I3:I85,"完了")</f>
         <v>0</v>
       </c>
       <c r="O8" s="2"/>
@@ -5145,11 +5181,11 @@
       </c>
       <c r="D9" s="40">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E9" s="44">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>4.5909090909090908</v>
+        <v>9.0416666666666661</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5172,12 +5208,12 @@
         <v>45848</v>
       </c>
       <c r="D10" s="49">
-        <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>11</v>
+        <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
+        <v>14</v>
       </c>
       <c r="E10" s="50">
         <f ca="1">($I$5 - $N$5) / D10</f>
-        <v>3.7272727272727271</v>
+        <v>3.1964285714285716</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -5200,12 +5236,12 @@
         <v>45859</v>
       </c>
       <c r="D11" s="41">
-        <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>11</v>
+        <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
+        <v>21</v>
       </c>
       <c r="E11" s="45">
         <f ca="1">($I$6 - $N$6) / D11</f>
-        <v>0.68181818181818177</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -5228,8 +5264,8 @@
         <v>45889</v>
       </c>
       <c r="D12" s="42">
-        <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>11</v>
+        <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
+        <v>43</v>
       </c>
       <c r="E12" s="46">
         <f ca="1">($I$7 - $N$7) / D12</f>
@@ -5256,12 +5292,12 @@
         <v>45920</v>
       </c>
       <c r="D13" s="43">
-        <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>11</v>
+        <f ca="1">NETWORKDAYS(TODAY(),C13)</f>
+        <v>65</v>
       </c>
       <c r="E13" s="47">
         <f ca="1">($I$8 - $N$8) / D13</f>
-        <v>0.18181818181818182</v>
+        <v>3.0769230769230771E-2</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5314,8 +5350,8 @@
         <v>41</v>
       </c>
       <c r="C16" s="8">
-        <f>SUMIF(コスト表!E3:E84,"S",コスト表!G3:G84)</f>
-        <v>41</v>
+        <f>SUMIF(コスト表!E3:E85,"S",コスト表!G3:G85)</f>
+        <v>45.5</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -5336,7 +5372,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="8">
-        <f>SUMIF(コスト表!E3:E84,"A",コスト表!G3:G84)</f>
+        <f>SUMIF(コスト表!E3:E85,"A",コスト表!G3:G85)</f>
         <v>9.5</v>
       </c>
       <c r="D17" s="2"/>
@@ -5358,7 +5394,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="8">
-        <f>SUMIF(コスト表!E3:E84,"B",コスト表!G3:G84)</f>
+        <f>SUMIF(コスト表!E3:E85,"B",コスト表!G3:G85)</f>
         <v>0</v>
       </c>
       <c r="D18" s="2"/>
@@ -5380,7 +5416,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="8">
-        <f>SUMIF(コスト表!E3:E84,"C",コスト表!G3:G84)</f>
+        <f>SUMIF(コスト表!E3:E85,"C",コスト表!G3:G85)</f>
         <v>0</v>
       </c>
       <c r="D19" s="2"/>

--- a/BLUE PROTOCOL(ゲーム名が決まっていない)_コスト表.xlsx
+++ b/BLUE PROTOCOL(ゲーム名が決まっていない)_コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\立石 喜遼\Documents\GitHub\Game2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7D76CC-D3D5-4743-B02D-714E3BA70634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03E4AF9-A076-4638-AAF3-6FF9D3D1BE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3C85D7E-55A7-4ED3-8EC8-9A17E23A1654}"/>
+    <workbookView xWindow="255" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{A3C85D7E-55A7-4ED3-8EC8-9A17E23A1654}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="3" r:id="rId1"/>
@@ -2714,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4765,7 +4765,7 @@
   </sheetData>
   <autoFilter ref="B2:I85" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}"/>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C37:I41 B37:B53 F42:I53 E42:E54 D46:E47 C48:E53 B54:I85 B3:I36">
+  <conditionalFormatting sqref="B3:I36 C37:I41 B37:B53 F42:I53 E42:E54 D46:E47 C48:E53 B54:I85">
     <cfRule type="expression" dxfId="22" priority="1">
       <formula>$I3="作業停止中"</formula>
     </cfRule>
@@ -4825,7 +4825,7 @@
       <formula>$E3="C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I14 I47:I53 I55:I59 I61:I80 I82:I85 I17:I23 I25:I42">
+  <conditionalFormatting sqref="I3:I14 I17:I23 I25:I42 I47:I53 I55:I59 I61:I80 I82:I85">
     <cfRule type="expression" dxfId="4" priority="14">
       <formula>$D2=" 完了"</formula>
     </cfRule>
@@ -4835,7 +4835,7 @@
       <formula>$D11=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15 I44:I46 I60 I24">
+  <conditionalFormatting sqref="I15 I24 I44:I46 I60">
     <cfRule type="expression" dxfId="2" priority="30">
       <formula>$D13=" 完了"</formula>
     </cfRule>
@@ -4873,7 +4873,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4970,11 +4970,11 @@
       </c>
       <c r="C4" s="30">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D4" s="31">
         <f ca="1" xml:space="preserve"> C3/ C4</f>
-        <v>2.7675276752767526E-3</v>
+        <v>2.7472527472527475E-3</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="C6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="2"/>
@@ -5176,16 +5176,16 @@
         <v>32</v>
       </c>
       <c r="C9" s="39">
-        <f>DATE(2025,6,30)</f>
-        <v>45838</v>
+        <f>DATE(2025,9,20)</f>
+        <v>45920</v>
       </c>
       <c r="D9" s="40">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="E9" s="44">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>9.0416666666666661</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5209,11 +5209,11 @@
       </c>
       <c r="D10" s="49">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="50">
         <f ca="1">($I$5 - $N$5) / D10</f>
-        <v>3.1964285714285716</v>
+        <v>3.7291666666666665</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -5237,11 +5237,11 @@
       </c>
       <c r="D11" s="41">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="45">
         <f ca="1">($I$6 - $N$6) / D11</f>
-        <v>0.35714285714285715</v>
+        <v>0.39473684210526316</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D12" s="42">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="46">
         <f ca="1">($I$7 - $N$7) / D12</f>
@@ -5293,11 +5293,11 @@
       </c>
       <c r="D13" s="43">
         <f ca="1">NETWORKDAYS(TODAY(),C13)</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="47">
         <f ca="1">($I$8 - $N$8) / D13</f>
-        <v>3.0769230769230771E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>

--- a/BLUE PROTOCOL(ゲーム名が決まっていない)_コスト表.xlsx
+++ b/BLUE PROTOCOL(ゲーム名が決まっていない)_コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\立石 喜遼\Documents\GitHub\Game2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03E4AF9-A076-4638-AAF3-6FF9D3D1BE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D341D7D4-D3C7-4502-8F96-0035A2A2216B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{A3C85D7E-55A7-4ED3-8EC8-9A17E23A1654}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{A3C85D7E-55A7-4ED3-8EC8-9A17E23A1654}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="97">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -528,15 +528,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>敵</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>プレイヤー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>沸き</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -568,16 +560,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>敵共通</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ポリゴンの当たり判定</t>
     <rPh sb="5" eb="6">
       <t>ア</t>
@@ -601,31 +583,35 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>敵1</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>作業停止中</t>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Boss共通</t>
+    <rPh sb="4" eb="6">
+      <t>キョウツウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>敵2</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
+    <t>近接攻撃</t>
+    <rPh sb="0" eb="4">
+      <t>キンセツコウゲキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>敵3</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
+    <t>遠隔攻撃</t>
+    <rPh sb="0" eb="4">
+      <t>エンカクコウゲキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>完了</t>
-  </si>
-  <si>
-    <t>作業停止中</t>
   </si>
 </sst>
 </file>
@@ -1653,10 +1639,10 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.5</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1665,7 +1651,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2714,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2818,7 +2804,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>60</v>
@@ -2844,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>62</v>
@@ -2870,7 +2856,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>61</v>
@@ -2896,7 +2882,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>63</v>
@@ -2948,7 +2934,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>65</v>
@@ -2974,7 +2960,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>66</v>
@@ -3000,7 +2986,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>67</v>
@@ -3026,7 +3012,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>45</v>
@@ -3052,7 +3038,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>46</v>
@@ -3078,10 +3064,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
@@ -3104,10 +3090,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>57</v>
@@ -3127,7 +3113,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>82</v>
@@ -3148,14 +3134,14 @@
         <v>1</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>82</v>
@@ -3181,7 +3167,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>82</v>
@@ -3207,7 +3193,7 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>82</v>
@@ -3233,7 +3219,7 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>82</v>
@@ -3259,7 +3245,7 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>82</v>
@@ -3285,7 +3271,7 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>82</v>
@@ -3306,14 +3292,14 @@
         <v>0.25</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>82</v>
@@ -3332,14 +3318,14 @@
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>82</v>
@@ -3365,7 +3351,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>82</v>
@@ -3391,7 +3377,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>82</v>
@@ -3417,7 +3403,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>82</v>
@@ -3443,7 +3429,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>82</v>
@@ -3469,7 +3455,7 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>82</v>
@@ -3495,7 +3481,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -3517,7 +3503,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3539,7 +3525,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3561,7 +3547,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3583,7 +3569,7 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3605,10 +3591,10 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="51" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>68</v>
@@ -3624,17 +3610,17 @@
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="51" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>78</v>
@@ -3657,10 +3643,10 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="51" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>79</v>
@@ -3683,10 +3669,10 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="51" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>80</v>
@@ -3702,17 +3688,17 @@
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="51" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>75</v>
@@ -3728,20 +3714,20 @@
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="51" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>21</v>
@@ -3754,42 +3740,42 @@
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="51" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E42" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
       <c r="B43" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4" t="s">
         <v>19</v>
@@ -3809,11 +3795,9 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>95</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4" t="s">
         <v>19</v>
@@ -3833,11 +3817,9 @@
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>95</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="4" t="s">
         <v>19</v>
@@ -3857,11 +3839,9 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="4" t="s">
         <v>19</v>
@@ -3881,11 +3861,9 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
       <c r="B47" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="4" t="s">
         <v>19</v>
@@ -3905,7 +3883,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="51" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -3927,7 +3905,7 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
       <c r="B49" s="51" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -3949,7 +3927,7 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="51" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -3971,7 +3949,7 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
       <c r="B51" s="51" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -3993,7 +3971,7 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="2"/>
       <c r="B52" s="51" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -4015,7 +3993,7 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
       <c r="B53" s="51" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -4146,7 +4124,7 @@
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J58" s="2"/>
     </row>
@@ -4765,7 +4743,7 @@
   </sheetData>
   <autoFilter ref="B2:I85" xr:uid="{EA26A2D1-5415-4D51-BA08-A8FA688A3173}"/>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B3:I36 C37:I41 B37:B53 F42:I53 E42:E54 D46:E47 C48:E53 B54:I85">
+  <conditionalFormatting sqref="B3:I36 C37:I41 F42:I53 E42:E54 D46:E47 C48:E53 B54:I85 B37:B53 C37:C47 D42:D45">
     <cfRule type="expression" dxfId="22" priority="1">
       <formula>$I3="作業停止中"</formula>
     </cfRule>
@@ -4786,29 +4764,6 @@
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="9">
       <formula>$I3="中平"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42:D45 C46:C47">
-    <cfRule type="expression" dxfId="15" priority="38">
-      <formula>$I43="作業停止中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="39">
-      <formula>$I43="機能削除"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="40">
-      <formula>$I43="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="41">
-      <formula>$I43="バグ発生中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="42">
-      <formula>$I43="完了"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="43">
-      <formula>$I43="作業停止中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="44">
-      <formula>$I43="中平"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E85">
@@ -4934,7 +4889,7 @@
       </c>
       <c r="C3" s="8">
         <f>SUMIF(コスト表!I3:I85,"完了",コスト表!G3:G85)</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>24</v>
@@ -4970,11 +4925,11 @@
       </c>
       <c r="C4" s="30">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="D4" s="31">
         <f ca="1" xml:space="preserve"> C3/ C4</f>
-        <v>2.7472527472527475E-3</v>
+        <v>1.736111111111111E-3</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -4988,11 +4943,11 @@
       </c>
       <c r="J4" s="8">
         <f>SUMIF(コスト表!I3:I85,"作業中",コスト表!G3:G85)</f>
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="K4" s="8">
         <f>SUMIF(コスト表!I3:I85,"作業停止中",コスト表!G3:G85)</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L4" s="8">
         <f>SUMIF(コスト表!I3:I85,"バグ発生中",コスト表!G3:G85)</f>
@@ -5004,7 +4959,7 @@
       </c>
       <c r="N4" s="8">
         <f>SUMIF(コスト表!I3:I85,"完了",コスト表!G3:G85)</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -5030,11 +4985,11 @@
       </c>
       <c r="J5" s="19">
         <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"プロト",コスト表!I3:I85,"作業中")</f>
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="K5" s="8">
         <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"プロト",コスト表!I3:I85,"作業停止中")</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L5" s="8">
         <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"プロト",コスト表!I3:I85,"バグ発生中")</f>
@@ -5046,7 +5001,7 @@
       </c>
       <c r="N5" s="8">
         <f>SUMIFS(コスト表!G3:G85,コスト表!F3:F85,"プロト",コスト表!I3:I85,"完了")</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="2"/>
     </row>
@@ -5057,7 +5012,7 @@
       </c>
       <c r="C6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45833</v>
+        <v>45854</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="2"/>
@@ -5181,11 +5136,11 @@
       </c>
       <c r="D9" s="40">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E9" s="44">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>0.86111111111111116</v>
+        <v>1.1354166666666667</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5209,11 +5164,11 @@
       </c>
       <c r="D10" s="49">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="E10" s="50">
         <f ca="1">($I$5 - $N$5) / D10</f>
-        <v>3.7291666666666665</v>
+        <v>-9</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -5237,11 +5192,11 @@
       </c>
       <c r="D11" s="41">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E11" s="45">
         <f ca="1">($I$6 - $N$6) / D11</f>
-        <v>0.39473684210526316</v>
+        <v>1.875</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -5265,7 +5220,7 @@
       </c>
       <c r="D12" s="42">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E12" s="46">
         <f ca="1">($I$7 - $N$7) / D12</f>
@@ -5293,11 +5248,11 @@
       </c>
       <c r="D13" s="43">
         <f ca="1">NETWORKDAYS(TODAY(),C13)</f>
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E13" s="47">
         <f ca="1">($I$8 - $N$8) / D13</f>
-        <v>3.1746031746031744E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
